--- a/index_tests/in977_X7s/Result summary IN-1091 (DAG IN-1135).xlsx
+++ b/index_tests/in977_X7s/Result summary IN-1091 (DAG IN-1135).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>round(skytra_index,4),'|',round(skytra_benchmark,4),'|',round(skytra_issued_index,4),'|',round(skytra_issued_benchmark,4)</t>
   </si>
@@ -224,9 +224,6 @@
     <t>NUMERIC, correct table source, airflow param, collate variables up top module</t>
   </si>
   <si>
-    <t>Prod Table (index ds)</t>
-  </si>
-  <si>
     <t>X7_IATA_index_2013_2020</t>
   </si>
   <si>
@@ -249,6 +246,45 @@
   </si>
   <si>
     <t>X7_DOI_no_spot.sql</t>
+  </si>
+  <si>
+    <t>Migrated</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Current Prod Table (index ds)</t>
+  </si>
+  <si>
+    <t>Current Conf</t>
+  </si>
+  <si>
+    <t>New Exists</t>
+  </si>
+  <si>
+    <t>Truncate New</t>
+  </si>
+  <si>
+    <t>9-Jun ?</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Backup New</t>
+  </si>
+  <si>
+    <t>No, New in Use</t>
+  </si>
+  <si>
+    <t>NA New = Old</t>
+  </si>
+  <si>
+    <t>Backup Current post 22/6 post Sprint</t>
   </si>
 </sst>
 </file>
@@ -721,7 +757,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -753,6 +789,21 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1075,32 +1126,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="26.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="41.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="118" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.5" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="37.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="118" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H1" s="5"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1108,10 +1166,10 @@
         <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
@@ -1122,9 +1180,29 @@
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1132,10 +1210,10 @@
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="str">
         <f>"scratch_PaD_EU.in113B_" &amp;A4</f>
@@ -1148,9 +1226,27 @@
       <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1158,10 +1254,10 @@
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>"scratch_PaD_EU.in113B_" &amp;A5</f>
@@ -1174,9 +1270,27 @@
       <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1184,10 +1298,10 @@
         <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="str">
         <f>"scratch_PaD_EU.in113B_" &amp;A6</f>
@@ -1200,9 +1314,27 @@
       <c r="G6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1210,7 +1342,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
@@ -1226,18 +1358,38 @@
       <c r="G7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -1255,8 +1407,9 @@
       </c>
       <c r="F11"/>
       <c r="G11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1270,8 +1423,9 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1289,8 +1443,9 @@
       </c>
       <c r="F13"/>
       <c r="G13"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1308,8 +1463,9 @@
       </c>
       <c r="F14"/>
       <c r="G14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1323,6 +1479,7 @@
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
+      <c r="H15"/>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
